--- a/DMSNewVSale_2025-10-23_18-16.xlsx
+++ b/DMSNewVSale_2025-10-23_18-16.xlsx
@@ -131,6 +131,18 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>266.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>FUNGICAN 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -222,9 +234,6 @@
   </si>
   <si>
     <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>29.00</t>
@@ -1312,7 +1321,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1321,14 +1330,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1361,21 +1370,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1387,28 +1396,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1420,14 +1429,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1437,11 +1446,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1453,14 +1462,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1470,11 +1479,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1486,28 +1495,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1519,28 +1528,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1552,14 +1561,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1569,11 +1578,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1585,14 +1594,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1625,7 +1634,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1635,11 +1644,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1651,14 +1660,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1672,7 +1681,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1684,14 +1693,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1701,14 +1710,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1717,14 +1726,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1734,14 +1743,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1757,7 +1766,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1767,11 +1776,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1783,14 +1792,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1800,14 +1809,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1823,7 +1832,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1840,7 +1849,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1889,21 +1898,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1915,14 +1924,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1932,11 +1941,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1955,7 +1964,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1965,11 +1974,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -1981,14 +1990,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1998,11 +2007,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>17</v>
@@ -2014,14 +2023,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2031,11 +2040,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2047,7 +2056,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2064,14 +2073,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2101,10 +2110,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>14</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2120,7 +2129,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2153,7 +2162,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2163,11 +2172,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>17</v>
@@ -2179,14 +2188,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2196,11 +2205,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>17</v>
@@ -2212,14 +2221,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2229,14 +2238,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2252,7 +2261,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2269,7 +2278,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2285,7 +2294,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2295,14 +2304,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2311,14 +2320,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2328,11 +2337,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>17</v>
@@ -2351,7 +2360,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2361,11 +2370,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>17</v>
@@ -2377,14 +2386,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2394,51 +2403,84 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="49" ht="26.25" customHeight="1">
-      <c r="N49" s="13">
-        <v>2053.0250000000001</v>
-      </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>123</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>124</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>125</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>31</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>117</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="N50" s="13">
+        <v>2319.0250000000001</v>
+      </c>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>126</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>127</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>128</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2657,10 +2699,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
